--- a/src/main/resources/upload/导入测试.xlsx
+++ b/src/main/resources/upload/导入测试.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="证据清单" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="208">
   <si>
     <t>证据清单</t>
   </si>
@@ -821,16 +821,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>上诉人刘谨钊于2012年12月至2014年初期间，利用天津市滨海新区塘沽卫生监督所医疗机构管理科监督员、组长的职务上便利，通过刘宏接收宴请并先后二次收受非法行医人王燕贿赂共计4000元，后王燕因不满刘谨钊经常检查诊所，通过刘宏要回了4000元。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">收受贿赂4000元后退回
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013年7月间，上诉人刘谨钊再次收受王燕钱款9900元。上诉人刘谨钊收受贿赂后，为王燕逃避检查事先通风报信。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -938,6 +930,28 @@
   </si>
   <si>
     <t>结论2：被告人刘谨钊归案后,对其犯罪事实能如实供述,有一定的悔罪表现,对其酌情从轻处罚。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年7月间，上诉人刘谨钊再次收受王燕钱款9900元。上诉人刘谨钊收受贿赂后，为王燕逃避检查事先通风报信。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上诉人刘谨钊于2012年12月至2014年初期间，利用天津市滨海新区塘沽卫生监督所医疗机构管理科监督员、组长的职务上便利，通过刘宏接收宴请并先后二次收受非法行医人王燕贿赂共计4000元，后王燕因不满刘谨钊经常检查诊所，通过刘宏要回了4000元。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>000元</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1091,7 +1105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1138,6 +1152,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,6 +1195,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1524,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A66" sqref="A59:XFD66"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1537,18 +1557,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="2:11" ht="28" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1581,25 +1601,25 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B3" s="21">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="22" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1611,13 +1631,13 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="6" t="s">
         <v>60</v>
       </c>
@@ -1627,13 +1647,13 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="6" t="s">
         <v>91</v>
       </c>
@@ -1643,13 +1663,13 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="12" t="s">
         <v>92</v>
       </c>
@@ -1659,13 +1679,13 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="6" t="s">
         <v>109</v>
       </c>
@@ -1675,25 +1695,25 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B8" s="18">
+      <c r="B8" s="19">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="19" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1705,61 +1725,61 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="6" t="s">
         <v>110</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="6" t="s">
         <v>99</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="6" t="s">
         <v>111</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="6" t="s">
         <v>91</v>
       </c>
@@ -1769,13 +1789,13 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="6" t="s">
         <v>110</v>
       </c>
@@ -1785,13 +1805,13 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="6" t="s">
         <v>111</v>
       </c>
@@ -1801,13 +1821,13 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="6" t="s">
         <v>113</v>
       </c>
@@ -1817,13 +1837,13 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="6" t="s">
         <v>115</v>
       </c>
@@ -1833,13 +1853,13 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="6" t="s">
         <v>116</v>
       </c>
@@ -1849,13 +1869,13 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:11" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="6" t="s">
         <v>104</v>
       </c>
@@ -1865,13 +1885,13 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="6" t="s">
         <v>118</v>
       </c>
@@ -1881,25 +1901,25 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B20" s="18">
+      <c r="B20" s="19">
         <v>3</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="19" t="s">
         <v>59</v>
       </c>
       <c r="I20" s="6" t="s">
@@ -1911,13 +1931,13 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="6" t="s">
         <v>99</v>
       </c>
@@ -1927,13 +1947,13 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B22" s="18"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="6" t="s">
         <v>92</v>
       </c>
@@ -1943,13 +1963,13 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="18"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="6" t="s">
         <v>121</v>
       </c>
@@ -1959,13 +1979,13 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="6" t="s">
         <v>99</v>
       </c>
@@ -1975,13 +1995,13 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B25" s="18"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
       <c r="I25" s="6" t="s">
         <v>94</v>
       </c>
@@ -1991,25 +2011,25 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B26" s="18">
+      <c r="B26" s="19">
         <v>4</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H26" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="10" t="s">
@@ -2021,13 +2041,13 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B27" s="18"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="10" t="s">
         <v>133</v>
       </c>
@@ -2037,13 +2057,13 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B28" s="18"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
       <c r="I28" s="10" t="s">
         <v>134</v>
       </c>
@@ -2053,13 +2073,13 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="10" t="s">
         <v>132</v>
       </c>
@@ -2069,25 +2089,25 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>5</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="13">
@@ -2099,13 +2119,13 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="6" t="s">
         <v>92</v>
       </c>
@@ -2115,13 +2135,13 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="6" t="s">
         <v>134</v>
       </c>
@@ -2131,71 +2151,71 @@
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B33" s="18">
+      <c r="B33" s="19">
         <v>6</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>133</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
       <c r="I34" s="6" t="s">
         <v>99</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B35" s="18">
+      <c r="B35" s="19">
         <v>7</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="6" t="s">
@@ -2206,13 +2226,13 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="6" t="s">
         <v>143</v>
       </c>
@@ -2221,13 +2241,13 @@
       </c>
     </row>
     <row r="37" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="6" t="s">
         <v>92</v>
       </c>
@@ -2236,13 +2256,13 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="6" t="s">
         <v>144</v>
       </c>
@@ -2251,25 +2271,25 @@
       </c>
     </row>
     <row r="39" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B39" s="18">
+      <c r="B39" s="19">
         <v>8</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2280,13 +2300,13 @@
       </c>
     </row>
     <row r="40" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
       <c r="I40" s="6" t="s">
         <v>147</v>
       </c>
@@ -2295,13 +2315,13 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
       <c r="I41" s="6" t="s">
         <v>92</v>
       </c>
@@ -2310,13 +2330,13 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="6" t="s">
         <v>148</v>
       </c>
@@ -2325,25 +2345,25 @@
       </c>
     </row>
     <row r="43" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B43" s="18">
+      <c r="B43" s="19">
         <v>9</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="19" t="s">
         <v>59</v>
       </c>
       <c r="I43" s="6" t="s">
@@ -2354,13 +2374,13 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B44" s="18"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
       <c r="I44" s="6" t="s">
         <v>99</v>
       </c>
@@ -2369,13 +2389,13 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B45" s="18"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="10">
         <v>41248</v>
       </c>
@@ -2384,13 +2404,13 @@
       </c>
     </row>
     <row r="46" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B46" s="18"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
       <c r="I46" s="6" t="s">
         <v>151</v>
       </c>
@@ -2399,13 +2419,13 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
       <c r="I47" s="6" t="s">
         <v>153</v>
       </c>
@@ -2414,13 +2434,13 @@
       </c>
     </row>
     <row r="48" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
       <c r="I48" s="6" t="s">
         <v>91</v>
       </c>
@@ -2429,13 +2449,13 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
       <c r="I49" s="6" t="s">
         <v>154</v>
       </c>
@@ -2444,13 +2464,13 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B50" s="18"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
       <c r="I50" s="6" t="s">
         <v>94</v>
       </c>
@@ -2459,13 +2479,13 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="6" t="s">
         <v>155</v>
       </c>
@@ -2474,13 +2494,13 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
       <c r="I52" s="6" t="s">
         <v>157</v>
       </c>
@@ -2489,13 +2509,13 @@
       </c>
     </row>
     <row r="53" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
       <c r="I53" s="6" t="s">
         <v>158</v>
       </c>
@@ -2504,13 +2524,13 @@
       </c>
     </row>
     <row r="54" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
       <c r="I54" s="6" t="s">
         <v>99</v>
       </c>
@@ -2519,13 +2539,13 @@
       </c>
     </row>
     <row r="55" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
       <c r="I55" s="6" t="s">
         <v>92</v>
       </c>
@@ -2534,13 +2554,13 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
       <c r="I56" s="6" t="s">
         <v>159</v>
       </c>
@@ -2549,13 +2569,13 @@
       </c>
     </row>
     <row r="57" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
       <c r="I57" s="6" t="s">
         <v>107</v>
       </c>
@@ -2564,13 +2584,13 @@
       </c>
     </row>
     <row r="58" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
       <c r="I58" s="6" t="s">
         <v>108</v>
       </c>
@@ -2579,25 +2599,25 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="18">
+      <c r="B59" s="19">
         <v>10</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H59" s="18" t="s">
+      <c r="H59" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="6" t="s">
@@ -2608,13 +2628,13 @@
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
       <c r="I60" s="6" t="s">
         <v>55</v>
       </c>
@@ -2623,25 +2643,25 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="18">
+      <c r="B61" s="19">
         <v>11</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="17" t="s">
+      <c r="F61" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="6" t="s">
@@ -2652,13 +2672,13 @@
       </c>
     </row>
     <row r="62" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
       <c r="I62" s="6" t="s">
         <v>99</v>
       </c>
@@ -2667,13 +2687,13 @@
       </c>
     </row>
     <row r="63" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
       <c r="I63" s="5" t="s">
         <v>60</v>
       </c>
@@ -2711,25 +2731,25 @@
       </c>
     </row>
     <row r="65" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B65" s="18">
+      <c r="B65" s="19">
         <v>13</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I65" s="6" t="s">
@@ -2740,13 +2760,13 @@
       </c>
     </row>
     <row r="66" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
       <c r="I66" s="6" t="s">
         <v>170</v>
       </c>
@@ -2755,25 +2775,25 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="18">
+      <c r="B67" s="19">
         <v>14</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I67" s="6" t="s">
@@ -2784,13 +2804,13 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
       <c r="I68" s="6" t="s">
         <v>99</v>
       </c>
@@ -2799,13 +2819,13 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
       <c r="I69" s="6" t="s">
         <v>172</v>
       </c>
@@ -2814,25 +2834,25 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="18">
+      <c r="B70" s="19">
         <v>15</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I70" s="6" t="s">
@@ -2843,13 +2863,13 @@
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
       <c r="I71" s="5" t="s">
         <v>65</v>
       </c>
@@ -2858,13 +2878,13 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
       <c r="I72" s="6" t="s">
         <v>66</v>
       </c>
@@ -2984,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H121"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2998,15 +3018,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="2:8" ht="56" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
@@ -3032,14 +3052,14 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="24">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>182</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>206</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>92</v>
@@ -3055,9 +3075,9 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="6" t="s">
         <v>60</v>
       </c>
@@ -3072,9 +3092,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B5" s="24"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="6" t="s">
         <v>91</v>
       </c>
@@ -3089,9 +3109,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B6" s="24"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="6" t="s">
         <v>92</v>
       </c>
@@ -3106,11 +3126,11 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B7" s="24"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
@@ -3123,9 +3143,9 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="6" t="s">
         <v>94</v>
       </c>
@@ -3140,9 +3160,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="6" t="s">
         <v>96</v>
       </c>
@@ -3157,9 +3177,9 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="6" t="s">
         <v>92</v>
       </c>
@@ -3174,9 +3194,9 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="24"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="6" t="s">
         <v>91</v>
       </c>
@@ -3191,9 +3211,9 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="24"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="6" t="s">
         <v>94</v>
       </c>
@@ -3208,9 +3228,9 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B13" s="24"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="6" t="s">
         <v>92</v>
       </c>
@@ -3225,9 +3245,9 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="6" t="s">
         <v>98</v>
       </c>
@@ -3242,9 +3262,9 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="6" t="s">
         <v>99</v>
       </c>
@@ -3259,9 +3279,9 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="6" t="s">
         <v>92</v>
       </c>
@@ -3276,9 +3296,9 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="8" t="s">
         <v>98</v>
       </c>
@@ -3293,11 +3313,11 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -3310,9 +3330,9 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B19" s="24"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="6" t="s">
         <v>91</v>
       </c>
@@ -3327,9 +3347,9 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B20" s="24"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="6" t="s">
         <v>92</v>
       </c>
@@ -3340,13 +3360,13 @@
         <v>110</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B21" s="24"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="6" t="s">
         <v>99</v>
       </c>
@@ -3357,30 +3377,30 @@
         <v>99</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="6" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="6">
         <v>2</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>111</v>
+      <c r="G22" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="24"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="6" t="s">
         <v>91</v>
       </c>
@@ -3395,9 +3415,9 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="24"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="6" t="s">
         <v>92</v>
       </c>
@@ -3412,9 +3432,9 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="24"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="6" t="s">
         <v>111</v>
       </c>
@@ -3429,11 +3449,11 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F26" s="6">
         <v>2</v>
@@ -3446,9 +3466,9 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B27" s="24"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="10">
         <v>41248</v>
       </c>
@@ -3463,9 +3483,9 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="6" t="s">
         <v>99</v>
       </c>
@@ -3480,9 +3500,9 @@
       </c>
     </row>
     <row r="29" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="6" t="s">
         <v>92</v>
       </c>
@@ -3497,11 +3517,11 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F30" s="6">
         <v>3</v>
@@ -3514,9 +3534,9 @@
       </c>
     </row>
     <row r="31" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="6" t="s">
         <v>99</v>
       </c>
@@ -3531,9 +3551,9 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B32" s="24"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="6" t="s">
         <v>94</v>
       </c>
@@ -3548,9 +3568,9 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B33" s="24"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="6" t="s">
         <v>92</v>
       </c>
@@ -3565,9 +3585,9 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B34" s="24"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="6" t="s">
         <v>99</v>
       </c>
@@ -3582,9 +3602,9 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B35" s="24"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="6" t="s">
         <v>92</v>
       </c>
@@ -3599,9 +3619,9 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B36" s="24"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="6" t="s">
         <v>123</v>
       </c>
@@ -3616,9 +3636,9 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="6" t="s">
         <v>92</v>
       </c>
@@ -3633,9 +3653,9 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B38" s="24"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="10" t="s">
         <v>133</v>
       </c>
@@ -3650,9 +3670,9 @@
       </c>
     </row>
     <row r="39" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B39" s="24"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="10" t="s">
         <v>134</v>
       </c>
@@ -3667,11 +3687,11 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B40" s="24"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F40" s="6">
         <v>4</v>
@@ -3684,9 +3704,9 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B41" s="24"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="10">
         <v>41248</v>
       </c>
@@ -3701,9 +3721,9 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B42" s="24"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="6" t="s">
         <v>92</v>
       </c>
@@ -3718,26 +3738,26 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B43" s="24"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="E43" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F43" s="6">
         <v>4</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H43" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B44" s="24"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="6" t="s">
         <v>99</v>
       </c>
@@ -3752,9 +3772,9 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B45" s="24"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="6" t="s">
         <v>60</v>
       </c>
@@ -3769,9 +3789,9 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B46" s="24"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="13">
         <v>41248</v>
       </c>
@@ -3786,9 +3806,9 @@
       </c>
     </row>
     <row r="47" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B47" s="24"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="6" t="s">
         <v>92</v>
       </c>
@@ -3803,9 +3823,9 @@
       </c>
     </row>
     <row r="48" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B48" s="24"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="6" t="s">
         <v>134</v>
       </c>
@@ -3820,26 +3840,26 @@
       </c>
     </row>
     <row r="49" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B49" s="24"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F49" s="6">
         <v>5</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B50" s="24"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="6" t="s">
         <v>99</v>
       </c>
@@ -3854,9 +3874,9 @@
       </c>
     </row>
     <row r="51" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B51" s="24"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="6" t="s">
         <v>60</v>
       </c>
@@ -3871,9 +3891,9 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B52" s="24"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="6" t="s">
         <v>133</v>
       </c>
@@ -3884,13 +3904,13 @@
         <v>133</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B53" s="24"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="6" t="s">
         <v>99</v>
       </c>
@@ -3901,15 +3921,15 @@
         <v>99</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B54" s="24"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F54" s="6">
         <v>9</v>
@@ -3922,9 +3942,9 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B55" s="24"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="6" t="s">
         <v>99</v>
       </c>
@@ -3939,9 +3959,9 @@
       </c>
     </row>
     <row r="56" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B56" s="24"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="10">
         <v>41248</v>
       </c>
@@ -3956,9 +3976,9 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B57" s="24"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="6" t="s">
         <v>60</v>
       </c>
@@ -3973,11 +3993,11 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="24"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F58" s="6">
         <v>9</v>
@@ -3990,9 +4010,9 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B59" s="24"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="6" t="s">
         <v>91</v>
       </c>
@@ -4007,9 +4027,9 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B60" s="24"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="8" t="s">
         <v>94</v>
       </c>
@@ -4024,9 +4044,9 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B61" s="24"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="6" t="s">
         <v>94</v>
       </c>
@@ -4041,11 +4061,11 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B62" s="24"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F62" s="6">
         <v>9</v>
@@ -4058,9 +4078,9 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="24"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="6" t="s">
         <v>92</v>
       </c>
@@ -4075,9 +4095,9 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="24"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="8"/>
       <c r="F64" s="6">
         <v>10</v>
@@ -4090,9 +4110,9 @@
       </c>
     </row>
     <row r="65" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B65" s="24"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="6" t="s">
         <v>168</v>
       </c>
@@ -4107,9 +4127,9 @@
       </c>
     </row>
     <row r="66" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B66" s="24"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="6" t="s">
         <v>99</v>
       </c>
@@ -4124,9 +4144,9 @@
       </c>
     </row>
     <row r="67" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B67" s="24"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="6" t="s">
         <v>60</v>
       </c>
@@ -4141,9 +4161,9 @@
       </c>
     </row>
     <row r="68" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B68" s="24"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="6" t="s">
         <v>99</v>
       </c>
@@ -4158,14 +4178,14 @@
       </c>
     </row>
     <row r="69" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B69" s="24">
+      <c r="B69" s="25">
         <v>2</v>
       </c>
-      <c r="C69" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>184</v>
+      <c r="C69" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>205</v>
       </c>
       <c r="E69" s="11">
         <v>41456</v>
@@ -4181,9 +4201,9 @@
       </c>
     </row>
     <row r="70" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B70" s="24"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="6" t="s">
         <v>104</v>
       </c>
@@ -4194,13 +4214,13 @@
         <v>104</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B71" s="24"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="6" t="s">
         <v>105</v>
       </c>
@@ -4211,13 +4231,13 @@
         <v>105</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B72" s="24"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="6" t="s">
         <v>92</v>
       </c>
@@ -4228,13 +4248,13 @@
         <v>92</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B73" s="24"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="8" t="s">
         <v>159</v>
       </c>
@@ -4245,13 +4265,13 @@
         <v>106</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B74" s="24"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="6" t="s">
         <v>107</v>
       </c>
@@ -4262,13 +4282,13 @@
         <v>107</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="B75" s="24"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="6" t="s">
         <v>108</v>
       </c>
@@ -4279,13 +4299,13 @@
         <v>108</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B76" s="24"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="6" t="s">
         <v>92</v>
       </c>
@@ -4300,9 +4320,9 @@
       </c>
     </row>
     <row r="77" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B77" s="24"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="8" t="s">
         <v>100</v>
       </c>
@@ -4317,9 +4337,9 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="24"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="11">
         <v>41456</v>
       </c>
@@ -4334,9 +4354,9 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="24"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="6" t="s">
         <v>116</v>
       </c>
@@ -4351,9 +4371,9 @@
       </c>
     </row>
     <row r="80" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B80" s="24"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="6" t="s">
         <v>104</v>
       </c>
@@ -4368,9 +4388,9 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B81" s="24"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="6" t="s">
         <v>105</v>
       </c>
@@ -4385,9 +4405,9 @@
       </c>
     </row>
     <row r="82" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B82" s="24"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="6" t="s">
         <v>116</v>
       </c>
@@ -4398,13 +4418,13 @@
         <v>116</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B83" s="24"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="6" t="s">
         <v>107</v>
       </c>
@@ -4415,13 +4435,13 @@
         <v>100</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B84" s="24"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
       <c r="E84" s="6" t="s">
         <v>119</v>
       </c>
@@ -4432,13 +4452,13 @@
         <v>119</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B85" s="24"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
       <c r="E85" s="6" t="s">
         <v>92</v>
       </c>
@@ -4449,13 +4469,13 @@
         <v>110</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="24"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
       <c r="E86" s="6" t="s">
         <v>92</v>
       </c>
@@ -4470,9 +4490,9 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="24"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="8" t="s">
         <v>100</v>
       </c>
@@ -4487,9 +4507,9 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="24"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="6" t="s">
         <v>99</v>
       </c>
@@ -4504,9 +4524,9 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="24"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="11">
         <v>41456</v>
       </c>
@@ -4521,9 +4541,9 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B90" s="24"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="6" t="s">
         <v>99</v>
       </c>
@@ -4538,9 +4558,9 @@
       </c>
     </row>
     <row r="91" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B91" s="24"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="6" t="s">
         <v>92</v>
       </c>
@@ -4555,9 +4575,9 @@
       </c>
     </row>
     <row r="92" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B92" s="24"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="6" t="s">
         <v>116</v>
       </c>
@@ -4572,9 +4592,9 @@
       </c>
     </row>
     <row r="93" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B93" s="24"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="8" t="s">
         <v>100</v>
       </c>
@@ -4589,9 +4609,9 @@
       </c>
     </row>
     <row r="94" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B94" s="24"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="6" t="s">
         <v>105</v>
       </c>
@@ -4606,9 +4626,9 @@
       </c>
     </row>
     <row r="95" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B95" s="24"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="6" t="s">
         <v>104</v>
       </c>
@@ -4623,9 +4643,9 @@
       </c>
     </row>
     <row r="96" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B96" s="24"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="6" t="s">
         <v>99</v>
       </c>
@@ -4640,9 +4660,9 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B97" s="24"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
       <c r="E97" s="6" t="s">
         <v>92</v>
       </c>
@@ -4657,9 +4677,9 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B98" s="24"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
       <c r="E98" s="6" t="s">
         <v>116</v>
       </c>
@@ -4674,9 +4694,9 @@
       </c>
     </row>
     <row r="99" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B99" s="24"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="6" t="s">
         <v>107</v>
       </c>
@@ -4691,9 +4711,9 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B100" s="24"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
       <c r="E100" s="6" t="s">
         <v>119</v>
       </c>
@@ -4708,9 +4728,9 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B101" s="24"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="8" t="s">
         <v>100</v>
       </c>
@@ -4725,9 +4745,9 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="24"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="6" t="s">
         <v>92</v>
       </c>
@@ -4742,9 +4762,9 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="24"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="6" t="s">
         <v>99</v>
       </c>
@@ -4759,9 +4779,9 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" s="24"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="8" t="s">
         <v>100</v>
       </c>
@@ -4776,14 +4796,14 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B105" s="24">
+      <c r="B105" s="25">
         <v>3</v>
       </c>
-      <c r="C105" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>186</v>
+      <c r="C105" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>141</v>
@@ -4799,9 +4819,9 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="24"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="6" t="s">
         <v>92</v>
       </c>
@@ -4816,9 +4836,9 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="24"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="6" t="s">
         <v>144</v>
       </c>
@@ -4833,9 +4853,9 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B108" s="24"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="6" t="s">
         <v>146</v>
       </c>
@@ -4850,9 +4870,9 @@
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="6" t="s">
         <v>166</v>
       </c>
@@ -4867,9 +4887,9 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="24"/>
-      <c r="C110" s="24"/>
-      <c r="D110" s="24"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="6" t="s">
         <v>92</v>
       </c>
@@ -4884,9 +4904,9 @@
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="24"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="24"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="6" t="s">
         <v>148</v>
       </c>
@@ -4901,9 +4921,9 @@
       </c>
     </row>
     <row r="112" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B112" s="24"/>
-      <c r="C112" s="24"/>
-      <c r="D112" s="24"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="6" t="s">
         <v>141</v>
       </c>
@@ -4918,9 +4938,9 @@
       </c>
     </row>
     <row r="113" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="6" t="s">
         <v>144</v>
       </c>
@@ -4935,9 +4955,9 @@
       </c>
     </row>
     <row r="114" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="6" t="s">
         <v>146</v>
       </c>
@@ -4952,9 +4972,9 @@
       </c>
     </row>
     <row r="115" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B115" s="24"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
       <c r="E115" s="6" t="s">
         <v>166</v>
       </c>
@@ -4969,9 +4989,9 @@
       </c>
     </row>
     <row r="116" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B116" s="24"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="24"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
       <c r="E116" s="6" t="s">
         <v>144</v>
       </c>
@@ -4986,9 +5006,9 @@
       </c>
     </row>
     <row r="117" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B117" s="24"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="6" t="s">
         <v>141</v>
       </c>
@@ -5003,9 +5023,9 @@
       </c>
     </row>
     <row r="118" spans="2:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="6" t="s">
         <v>146</v>
       </c>
@@ -5020,9 +5040,9 @@
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
       <c r="E119" s="6" t="s">
         <v>92</v>
       </c>
@@ -5037,9 +5057,9 @@
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
       <c r="E120" s="5" t="s">
         <v>65</v>
       </c>
@@ -5054,9 +5074,9 @@
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="24"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
       <c r="E121" s="6" t="s">
         <v>66</v>
       </c>
@@ -5093,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5106,12 +5126,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
@@ -5129,50 +5149,50 @@
     </row>
     <row r="3" spans="2:5" ht="124.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>204</v>
+        <v>196</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="42" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+        <v>197</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" ht="56" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="2:5" ht="56" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/upload/导入测试.xlsx
+++ b/src/main/resources/upload/导入测试.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="证据清单" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="208">
   <si>
     <t>证据清单</t>
   </si>
@@ -1155,13 +1155,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,16 +1173,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1195,9 +1198,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1244,7 +1244,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K72"/>
+  <dimension ref="B1:K67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1557,18 +1557,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="2:11" ht="28" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1601,25 +1601,25 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -1631,13 +1631,13 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="6" t="s">
         <v>60</v>
       </c>
@@ -1647,13 +1647,13 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="6" t="s">
         <v>91</v>
       </c>
@@ -1663,13 +1663,13 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="12" t="s">
         <v>92</v>
       </c>
@@ -1679,13 +1679,13 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="6" t="s">
         <v>109</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -1704,16 +1704,16 @@
       <c r="D8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>59</v>
       </c>
       <c r="I8" s="6" t="s">
@@ -1725,13 +1725,13 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="6" t="s">
         <v>110</v>
       </c>
@@ -1741,13 +1741,13 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="6" t="s">
         <v>99</v>
       </c>
@@ -1756,1158 +1756,1138 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
+    <row r="11" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="6" t="s">
         <v>111</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="6" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>112</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="17"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="17"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
+    <row r="15" spans="2:11" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="17"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
+    <row r="16" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
       <c r="I16" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+    <row r="17" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B17" s="17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="I17" s="6" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="2:11" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
+    <row r="18" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
+    <row r="19" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="6" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B20" s="19">
-        <v>3</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>59</v>
-      </c>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
       <c r="I20" s="6" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+    <row r="21" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B21" s="17"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="6" t="s">
+    <row r="22" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B22" s="17">
+        <v>4</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
+    <row r="23" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B23" s="17"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="6" t="s">
-        <v>121</v>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="6" t="s">
-        <v>99</v>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="6" t="s">
-        <v>94</v>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B26" s="19">
-        <v>4</v>
+    <row r="26" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="B26" s="17">
+        <v>5</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="13">
+        <v>41248</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="10" t="s">
+      <c r="J27" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B29" s="17">
+        <v>6</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="J29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B30" s="19">
-        <v>5</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B31" s="17">
+        <v>7</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="19" t="s">
+      <c r="F31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I30" s="13">
-        <v>41248</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
       <c r="I31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="2:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B33" s="19">
-        <v>6</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="J33" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B35" s="17">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="19" t="s">
+      <c r="F35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H35" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B35" s="19">
-        <v>7</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>11</v>
-      </c>
       <c r="I35" s="6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="6" t="s">
         <v>92</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B39" s="19">
-        <v>8</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="B39" s="17">
+        <v>9</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>11</v>
+        <v>76</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="6" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="6" t="s">
-        <v>92</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="10">
+        <v>41248</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="42" x14ac:dyDescent="0.2">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
       <c r="I42" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B43" s="19">
-        <v>9</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>59</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="17"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B44" s="19"/>
+        <v>153</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B44" s="17"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
       <c r="I44" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B45" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B45" s="17"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="10">
-        <v>41248</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="42" x14ac:dyDescent="0.2">
-      <c r="B46" s="19"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B46" s="17"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="19"/>
+        <v>94</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B47" s="17"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
       <c r="I47" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="28" x14ac:dyDescent="0.2">
-      <c r="B48" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="6" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B49" s="19"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
       <c r="I49" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>50</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B50" s="19"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B51" s="19"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
       <c r="I51" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B52" s="19"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
       <c r="I52" s="6" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B53" s="19"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="6" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B54" s="19"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="17">
+        <v>10</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="I54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="17">
+        <v>11</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J54" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B55" s="19"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B56" s="19"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B57" s="19"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>53</v>
+      <c r="J57" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B58" s="19"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="6" t="s">
-        <v>108</v>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="5">
+        <v>12</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="18" t="s">
+      <c r="H59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B60" s="17">
+        <v>13</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" s="19" t="s">
+      <c r="F60" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I60" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="17">
+        <v>14</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J59" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="19">
-        <v>11</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="6" t="s">
+      <c r="J62" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="5">
-        <v>12</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="J63" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
       <c r="I64" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B65" s="19">
-        <v>13</v>
+        <v>172</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="17">
+        <v>15</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E65" s="18" t="s">
         <v>54</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="17" t="s">
         <v>11</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="28" x14ac:dyDescent="0.2">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="6" t="s">
-        <v>170</v>
+        <v>92</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="19">
-        <v>14</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F67" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="G67" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
       <c r="I67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="19">
-        <v>15</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E70" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J72" s="5" t="s">
+      <c r="J67" s="5" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F8:F16"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G8:G16"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G39:G53"/>
+    <mergeCell ref="H39:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B39:B53"/>
+    <mergeCell ref="C39:C53"/>
+    <mergeCell ref="D39:D53"/>
+    <mergeCell ref="E39:E53"/>
+    <mergeCell ref="F39:F53"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
     <mergeCell ref="D3:D7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
@@ -2915,84 +2895,25 @@
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G43:G58"/>
-    <mergeCell ref="H43:H58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="B43:B58"/>
-    <mergeCell ref="C43:C58"/>
-    <mergeCell ref="D43:D58"/>
-    <mergeCell ref="E43:E58"/>
-    <mergeCell ref="F43:F58"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="G8:G19"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H8:H19"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E8:E19"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="C8:C19"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="H20:H25"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3004,7 +2925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3055,10 +2976,10 @@
       <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="26" t="s">
         <v>206</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -4181,10 +4102,10 @@
       <c r="B69" s="25">
         <v>2</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="26" t="s">
         <v>205</v>
       </c>
       <c r="E69" s="11">
@@ -5154,10 +5075,10 @@
       <c r="C3" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5168,8 +5089,8 @@
       <c r="C4" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="2:5" ht="56" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
@@ -5178,8 +5099,8 @@
       <c r="C5" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="2:5" ht="56" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
